--- a/src/main/resources/agent_voucher/59#voucher_template.xlsx
+++ b/src/main/resources/agent_voucher/59#voucher_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouqianhao/Projects/nztrip/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouqianhao/Projects/nztrip/src/main/resources/agent_voucher/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$18</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Booked by EYOUNZ LTD</t>
   </si>
@@ -140,6 +140,15 @@
   <si>
     <t xml:space="preserve">1. 当您预订的旅游项目因天气等不可抗力因素而无法参加时，您可以向景点公司提出改期或取消；如果是取消，请您事后及时反馈至我趣旅行，由我趣旅行为您处理并办理相应的退款。    
 2. 当您在出发前需要对已经预订的旅游项目做任何修改时，必须经过我趣旅行操作，未经过我趣旅行而做的任何退改，可能会不被承认而导致无效或不退还任何费用。    </t>
+  </si>
+  <si>
+    <t>门票形式</t>
+  </si>
+  <si>
+    <t>TICKET INFO</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -267,6 +276,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -275,15 +293,6 @@
     </xf>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -355,13 +364,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -703,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:I16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -744,11 +753,11 @@
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -758,11 +767,11 @@
         <v>4</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -772,11 +781,11 @@
         <v>6</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -786,11 +795,11 @@
         <v>21</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -800,11 +809,11 @@
         <v>22</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -814,11 +823,11 @@
         <v>8</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -828,11 +837,11 @@
         <v>10</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -842,11 +851,11 @@
         <v>12</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -856,11 +865,11 @@
         <v>14</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -870,11 +879,11 @@
         <v>16</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -884,42 +893,59 @@
         <v>18</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="E16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="E16" s="10" t="s">
+      <c r="C17" s="2"/>
+      <c r="E17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E14:I14"/>
+  <mergeCells count="13">
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E11:I11"/>
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E16:I16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
